--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_45.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_45.xlsx
@@ -508,295 +508,295 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_2</t>
+          <t>model_1_45_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9955381875492872</v>
+        <v>0.8487839244368388</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8010994793982281</v>
+        <v>0.6067359002943423</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7779236541199704</v>
+        <v>0.7328389349284132</v>
       </c>
       <c r="E2" t="n">
-        <v>0.989630086517875</v>
+        <v>0.7603486578148823</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01857241344235244</v>
+        <v>0.3584112286168191</v>
       </c>
       <c r="G2" t="n">
-        <v>1.330048697116733</v>
+        <v>2.629758845546407</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7943542124864811</v>
+        <v>0.9556196388724622</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03454321759930564</v>
+        <v>0.6742275450863902</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3062681161418082</v>
+        <v>0.9576704418577966</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1362806422143381</v>
+        <v>0.5986745598543661</v>
       </c>
       <c r="L2" t="n">
-        <v>1.285555996845616</v>
+        <v>0.7940887481693124</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1384269260985513</v>
+        <v>0.6081030857170705</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9721558949534</v>
+        <v>36.05214853705219</v>
       </c>
       <c r="O2" t="n">
-        <v>279.3073284381698</v>
+        <v>73.01673212527801</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_5</t>
+          <t>model_1_45_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9953085314064374</v>
+        <v>0.8487011846110315</v>
       </c>
       <c r="C3" t="n">
-        <v>0.801090731056859</v>
+        <v>0.6066573494502745</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7798087701935401</v>
+        <v>0.733019145514924</v>
       </c>
       <c r="E3" t="n">
-        <v>0.987318924984837</v>
+        <v>0.7592785006497479</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01952836326805671</v>
+        <v>0.3586073379425815</v>
       </c>
       <c r="G3" t="n">
-        <v>1.33010719731575</v>
+        <v>2.630284115402382</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7876112615966326</v>
+        <v>0.9549750360537236</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04224192751433956</v>
+        <v>0.6772382915805524</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2992519772892103</v>
+        <v>0.9600607829460529</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1397439203259187</v>
+        <v>0.5988383237089803</v>
       </c>
       <c r="L3" t="n">
-        <v>1.300253989988008</v>
+        <v>0.7939760811724684</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1419447473783813</v>
+        <v>0.608269428688691</v>
       </c>
       <c r="N3" t="n">
-        <v>137.8717746872891</v>
+        <v>36.05105451053852</v>
       </c>
       <c r="O3" t="n">
-        <v>279.2069472305055</v>
+        <v>73.01563809876434</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_3</t>
+          <t>model_1_45_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9954516901304672</v>
+        <v>0.8486167477586241</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8010846967916276</v>
+        <v>0.6065785928072984</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7786556838645553</v>
+        <v>0.7331960957916219</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9887946746265208</v>
+        <v>0.75821441355195</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0189324612573979</v>
+        <v>0.3588074695482933</v>
       </c>
       <c r="G4" t="n">
-        <v>1.330147548475138</v>
+        <v>2.630810761436604</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7917357845356243</v>
+        <v>0.9543420951741414</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0373260580538415</v>
+        <v>0.6802319607382749</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3038648913237766</v>
+        <v>0.9624558625379916</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1375952806508926</v>
+        <v>0.5990054002663859</v>
       </c>
       <c r="L4" t="n">
-        <v>1.2910918316501</v>
+        <v>0.7938611033308923</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1397622687763252</v>
+        <v>0.6084391365348606</v>
       </c>
       <c r="N4" t="n">
-        <v>137.9337546066653</v>
+        <v>36.04993866175027</v>
       </c>
       <c r="O4" t="n">
-        <v>279.2689271498817</v>
+        <v>73.0145222499761</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_4</t>
+          <t>model_1_45_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9953929636969642</v>
+        <v>0.8485305504745844</v>
       </c>
       <c r="C5" t="n">
-        <v>0.80107017882563</v>
+        <v>0.6064995528999935</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7791644333174264</v>
+        <v>0.7333701351950976</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9881234562220664</v>
+        <v>0.7571555076546939</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01917691160466422</v>
+        <v>0.3590117737160944</v>
       </c>
       <c r="G5" t="n">
-        <v>1.330244630180613</v>
+        <v>2.631339301660698</v>
       </c>
       <c r="H5" t="n">
-        <v>0.789916017241693</v>
+        <v>0.9537195663192934</v>
       </c>
       <c r="I5" t="n">
-        <v>0.039561953603182</v>
+        <v>0.6832110532694281</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3013073531409803</v>
+        <v>0.9648495028757783</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1384807264736296</v>
+        <v>0.5991759121627758</v>
       </c>
       <c r="L5" t="n">
-        <v>1.294850323394293</v>
+        <v>0.7937437283058171</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1406616594856492</v>
+        <v>0.6086123338231691</v>
       </c>
       <c r="N5" t="n">
-        <v>137.9080964882937</v>
+        <v>36.04880019033015</v>
       </c>
       <c r="O5" t="n">
-        <v>279.2432690315101</v>
+        <v>73.01338377855596</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_1</t>
+          <t>model_1_45_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.995607622523497</v>
+        <v>0.8484427057256589</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8010430152852411</v>
+        <v>0.6064202676870358</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7769949138223649</v>
+        <v>0.7335409975433045</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9903765961385096</v>
+        <v>0.7561019895061867</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01828338850851045</v>
+        <v>0.3592199826930347</v>
       </c>
       <c r="G6" t="n">
-        <v>1.33042627290027</v>
+        <v>2.63186948224482</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7976762626795597</v>
+        <v>0.9531084016069254</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03205651948846745</v>
+        <v>0.6861749880777851</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3094700033875132</v>
+        <v>0.9672430904825823</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1352160808059102</v>
+        <v>0.5993496330966047</v>
       </c>
       <c r="L6" t="n">
-        <v>1.281112158496192</v>
+        <v>0.7936241099243015</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1373455989121117</v>
+        <v>0.6087887906880487</v>
       </c>
       <c r="N6" t="n">
-        <v>138.0035247262962</v>
+        <v>36.04764062599223</v>
       </c>
       <c r="O6" t="n">
-        <v>279.3386972695126</v>
+        <v>73.01222421421805</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_0</t>
+          <t>model_1_45_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9956863671216742</v>
+        <v>0.848353237836615</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8010122412508968</v>
+        <v>0.6063407448036643</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7761848359031954</v>
+        <v>0.7337090469190097</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9911927078772808</v>
+        <v>0.7550536721568408</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01795561201636617</v>
+        <v>0.3594320388247295</v>
       </c>
       <c r="G7" t="n">
-        <v>1.330632059009632</v>
+        <v>2.632401252132095</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8005738644254122</v>
+        <v>0.9525072987340903</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02933796976996559</v>
+        <v>0.6891242911214331</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3119295521210402</v>
+        <v>0.9696347809118995</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1339985522920534</v>
+        <v>0.5995265121950234</v>
       </c>
       <c r="L7" t="n">
-        <v>1.276072504212848</v>
+        <v>0.7935022813094332</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1361088955412436</v>
+        <v>0.6089684554554532</v>
       </c>
       <c r="N7" t="n">
-        <v>138.0397051315209</v>
+        <v>36.04646032659002</v>
       </c>
       <c r="O7" t="n">
-        <v>279.3748776747373</v>
+        <v>73.01104391481584</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9952572450808381</v>
+        <v>0.8482621751707711</v>
       </c>
       <c r="C8" t="n">
-        <v>0.800976445483317</v>
+        <v>0.6062610370631663</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7803256258937866</v>
+        <v>0.7338745885446989</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9866875936473806</v>
+        <v>0.7540104241615382</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01974184396754616</v>
+        <v>0.3596478748846502</v>
       </c>
       <c r="G8" t="n">
-        <v>1.330871425472262</v>
+        <v>2.632934258159826</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7857624987258662</v>
+        <v>0.9519151659376555</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04434495525942211</v>
+        <v>0.6920593322039313</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2953679973517865</v>
+        <v>0.9720246717138777</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1405056723678662</v>
+        <v>0.5997064906140755</v>
       </c>
       <c r="L8" t="n">
-        <v>1.30353631482636</v>
+        <v>0.7933782810836032</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1427184962535168</v>
+        <v>0.609151268354693</v>
       </c>
       <c r="N8" t="n">
-        <v>137.8500296731931</v>
+        <v>36.04525970305826</v>
       </c>
       <c r="O8" t="n">
-        <v>279.1852022164095</v>
+        <v>73.00984329128408</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9951605586891581</v>
+        <v>0.8481696078322033</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8007989145918486</v>
+        <v>0.6061811433375341</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7809219067679821</v>
+        <v>0.7340373153537068</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9858153077087078</v>
+        <v>0.7529723631653338</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02014430365413476</v>
+        <v>0.3598672773087794</v>
       </c>
       <c r="G9" t="n">
-        <v>1.332058575360966</v>
+        <v>2.633468507871005</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7836296366132205</v>
+        <v>0.9513331015772765</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04725062684871025</v>
+        <v>0.6949797803463841</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2911602131548159</v>
+        <v>0.9744106815990148</v>
       </c>
       <c r="K9" t="n">
-        <v>0.141930629724999</v>
+        <v>0.5998893875613899</v>
       </c>
       <c r="L9" t="n">
-        <v>1.309724243893882</v>
+        <v>0.7932522319417237</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1441658952645896</v>
+        <v>0.6093370457460976</v>
       </c>
       <c r="N9" t="n">
-        <v>137.8096674552421</v>
+        <v>36.04403997930256</v>
       </c>
       <c r="O9" t="n">
-        <v>279.1448399984585</v>
+        <v>73.00862356752839</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9950944796969279</v>
+        <v>0.8480754859536273</v>
       </c>
       <c r="C10" t="n">
-        <v>0.800631492376189</v>
+        <v>0.6061010924523169</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7813191560768727</v>
+        <v>0.7341976392215659</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9851460147150177</v>
+        <v>0.7519390117666974</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02041935922339274</v>
+        <v>0.3600903642921874</v>
       </c>
       <c r="G10" t="n">
-        <v>1.333178128487991</v>
+        <v>2.634003808509052</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7822086988691572</v>
+        <v>0.9507596323980565</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04948010866247676</v>
+        <v>0.697886978655234</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2873231473720946</v>
+        <v>0.9767918538782927</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1428963233375609</v>
+        <v>0.6000752988518919</v>
       </c>
       <c r="L10" t="n">
-        <v>1.313953299396616</v>
+        <v>0.7931240659794073</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1451467975862099</v>
+        <v>0.6095258849535821</v>
       </c>
       <c r="N10" t="n">
-        <v>137.7825436931828</v>
+        <v>36.04280053421492</v>
       </c>
       <c r="O10" t="n">
-        <v>279.1177162363992</v>
+        <v>73.00738412244074</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9950771625258319</v>
+        <v>0.8479799409273601</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8004333821128766</v>
+        <v>0.6060209135713948</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7813734533038719</v>
+        <v>0.7343555786398615</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9847585037062448</v>
+        <v>0.7509105355528978</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02049144241039318</v>
+        <v>0.3603168244097714</v>
       </c>
       <c r="G11" t="n">
-        <v>1.334502892730975</v>
+        <v>2.634539965054968</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7820144808365155</v>
+        <v>0.9501946922566673</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05077094653892004</v>
+        <v>0.7007804612724701</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2847688582637147</v>
+        <v>0.9792164145034165</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1431483231141503</v>
+        <v>0.6002639622780725</v>
       </c>
       <c r="L11" t="n">
-        <v>1.315061598346759</v>
+        <v>0.792993962113852</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1454027661073733</v>
+        <v>0.6097175196401308</v>
       </c>
       <c r="N11" t="n">
-        <v>137.775495846774</v>
+        <v>36.04154313351934</v>
       </c>
       <c r="O11" t="n">
-        <v>279.1106683899903</v>
+        <v>73.00612672174516</v>
       </c>
     </row>
   </sheetData>
